--- a/metrics/gpt2_1b_TGI_3070.xlsx
+++ b/metrics/gpt2_1b_TGI_3070.xlsx
@@ -456,68 +456,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1210.473816159237</v>
+        <v>437.6845201149663</v>
       </c>
       <c r="C2" t="n">
-        <v>1.947398643493652</v>
+        <v>0.05101449966430664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1780.195337528482</v>
+        <v>720.691145774948</v>
       </c>
       <c r="C3" t="n">
-        <v>1.818544607162476</v>
+        <v>3.310075120925903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>2035.1703922486</v>
+        <v>936.4337647645349</v>
       </c>
       <c r="C4" t="n">
-        <v>1.880474071502686</v>
+        <v>3.13735445022583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>2176.507811078986</v>
+        <v>1140.609401083387</v>
       </c>
       <c r="C5" t="n">
-        <v>1.884304027557373</v>
+        <v>3.19240291595459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>2363.862981399249</v>
+        <v>1368.576049286584</v>
       </c>
       <c r="C6" t="n">
-        <v>1.932764511108398</v>
+        <v>3.3892942237854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2611.853008813257</v>
+        <v>1612.815644193093</v>
       </c>
       <c r="C7" t="n">
-        <v>2.005537967681885</v>
+        <v>3.51928861618042</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>2718.626454868055</v>
+        <v>1860.253630150677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06002400398254395</v>
+        <v>3.703873233795166</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>2865.782103383222</v>
+        <v>1941.369141801807</v>
       </c>
       <c r="C9" t="n">
-        <v>2.083636264801025</v>
+        <v>3.976415233612061</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05800011634826659</v>
+        <v>7.91994345664978</v>
       </c>
     </row>
     <row r="3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1179.241354681178</v>
+        <v>395.6927763371669</v>
       </c>
       <c r="C3" t="n">
-        <v>5.038358955383301</v>
+        <v>7.693507318496704</v>
       </c>
     </row>
     <row r="4">
@@ -605,65 +605,65 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>1560.561530444045</v>
+        <v>861.3467985600149</v>
       </c>
       <c r="C4" t="n">
-        <v>4.762151985168457</v>
+        <v>7.466955070495605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1703.826664616716</v>
+        <v>1024.708557059347</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0150272560119629</v>
+        <v>7.251266841888428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1939.822349475088</v>
+        <v>1247.896274410595</v>
       </c>
       <c r="C6" t="n">
-        <v>4.474154977798462</v>
+        <v>7.00382435798645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2020.8142801708</v>
+        <v>1397.130547955569</v>
       </c>
       <c r="C7" t="n">
-        <v>4.106012134552002</v>
+        <v>6.818987016677856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>2097.813637717709</v>
+        <v>1550.355247117242</v>
       </c>
       <c r="C8" t="n">
-        <v>3.959230213165283</v>
+        <v>6.6239124584198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>2199.899415716925</v>
+        <v>1682.944586236859</v>
       </c>
       <c r="C9" t="n">
-        <v>3.672616987228393</v>
+        <v>6.413010244369507</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>193.8218298895725</v>
+        <v>172.0450011491415</v>
       </c>
       <c r="C2" t="n">
-        <v>2.497064142227173</v>
+        <v>3.436211280822754</v>
       </c>
     </row>
     <row r="3">
@@ -718,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>568.3610693637467</v>
+        <v>362.9028047402118</v>
       </c>
       <c r="C3" t="n">
-        <v>1.489868431091309</v>
+        <v>2.115502767562866</v>
       </c>
     </row>
     <row r="4">
@@ -729,10 +729,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>798.2424464348535</v>
+        <v>608.8870586698349</v>
       </c>
       <c r="C4" t="n">
-        <v>1.390053062438965</v>
+        <v>1.769668035507202</v>
       </c>
     </row>
     <row r="5">
@@ -740,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1013.22507874737</v>
+        <v>722.7864033030193</v>
       </c>
       <c r="C5" t="n">
-        <v>1.441891937255859</v>
+        <v>1.875404767990112</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +751,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1132.125649754963</v>
+        <v>876.68706674262</v>
       </c>
       <c r="C6" t="n">
-        <v>1.489082126617432</v>
+        <v>1.795151643753052</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +762,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1223.535912421285</v>
+        <v>985.9643916654568</v>
       </c>
       <c r="C7" t="n">
-        <v>1.560081033706665</v>
+        <v>1.810691766738892</v>
       </c>
     </row>
     <row r="8">
@@ -773,10 +773,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1262.131761236814</v>
+        <v>1060.651704025944</v>
       </c>
       <c r="C8" t="n">
-        <v>1.594924001693726</v>
+        <v>1.873460702896118</v>
       </c>
     </row>
     <row r="9">
@@ -784,10 +784,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1348.81033466881</v>
+        <v>1081.410269688545</v>
       </c>
       <c r="C9" t="n">
-        <v>1.62091067314148</v>
+        <v>1.877819471359253</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +831,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>203.7799300823999</v>
+        <v>177.7844705767731</v>
       </c>
       <c r="C2" t="n">
-        <v>1.240326194763184</v>
+        <v>1.740334491729736</v>
       </c>
     </row>
     <row r="3">
@@ -842,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>345.9360144315776</v>
+        <v>315.2857798793445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.191166906356812</v>
+        <v>1.615639667510986</v>
       </c>
     </row>
     <row r="4">
@@ -853,10 +853,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>478.0296287515357</v>
+        <v>347.8289685264247</v>
       </c>
       <c r="C4" t="n">
-        <v>1.19146731376648</v>
+        <v>2.009637813568115</v>
       </c>
     </row>
     <row r="5">
@@ -864,10 +864,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>607.0914335270014</v>
+        <v>414.7838286699141</v>
       </c>
       <c r="C5" t="n">
-        <v>1.411788492202759</v>
+        <v>1.868145685195923</v>
       </c>
     </row>
     <row r="6">
@@ -875,10 +875,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>680.8320138035997</v>
+        <v>474.5994636591108</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02094909667968751</v>
+        <v>1.733024339675903</v>
       </c>
     </row>
     <row r="7">
@@ -886,10 +886,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>726.4505470244535</v>
+        <v>521.8168700079547</v>
       </c>
       <c r="C7" t="n">
-        <v>1.459917812347412</v>
+        <v>1.783113460540771</v>
       </c>
     </row>
     <row r="8">
@@ -897,10 +897,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>746.6999484256313</v>
+        <v>557.4884923489612</v>
       </c>
       <c r="C8" t="n">
-        <v>1.538759737014771</v>
+        <v>1.809043626785278</v>
       </c>
     </row>
     <row r="9">
@@ -908,10 +908,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>762.3737732354119</v>
+        <v>578.4108438969939</v>
       </c>
       <c r="C9" t="n">
-        <v>1.573764114379883</v>
+        <v>1.873389225006103</v>
       </c>
     </row>
   </sheetData>
@@ -955,21 +955,21 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>223.0133351670408</v>
+        <v>229.3968929325478</v>
       </c>
       <c r="C2" t="n">
-        <v>1.438807945251465</v>
+        <v>1.863942461013794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>222.7515735986451</v>
+        <v>225.6034505644967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.387016515731812</v>
+        <v>1.504905300140381</v>
       </c>
     </row>
     <row r="4">
@@ -977,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>241.7583812707384</v>
+        <v>228.9027278622504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.519031267166138</v>
+        <v>1.318234281539917</v>
       </c>
     </row>
     <row r="5">
@@ -988,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>258.6587177682497</v>
+        <v>226.1767550054634</v>
       </c>
       <c r="C5" t="n">
-        <v>1.358895282745361</v>
+        <v>1.539258556365967</v>
       </c>
     </row>
     <row r="6">
@@ -999,10 +999,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>267.3198026289061</v>
+        <v>230.1420846398823</v>
       </c>
       <c r="C6" t="n">
-        <v>1.337411861419678</v>
+        <v>1.496906595230103</v>
       </c>
     </row>
     <row r="7">
@@ -1010,10 +1010,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>271.3377672031981</v>
+        <v>232.0307710542761</v>
       </c>
       <c r="C7" t="n">
-        <v>1.29903338432312</v>
+        <v>1.455706672668457</v>
       </c>
     </row>
     <row r="8">
@@ -1021,10 +1021,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>275.5129713345165</v>
+        <v>245.4098668007541</v>
       </c>
       <c r="C8" t="n">
-        <v>1.3873486328125</v>
+        <v>1.593352155685425</v>
       </c>
     </row>
     <row r="9">
@@ -1032,10 +1032,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>283.211749510649</v>
+        <v>239.2182975973018</v>
       </c>
       <c r="C9" t="n">
-        <v>1.914614181518555</v>
+        <v>1.425928907394409</v>
       </c>
     </row>
   </sheetData>
